--- a/Roithner Laser SH5210MG/Roithner_SHD5210MG_OpticalPower.xlsx
+++ b/Roithner Laser SH5210MG/Roithner_SHD5210MG_OpticalPower.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Laser Spectrum\Roithner Laser SH5210MG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4EB0A-B41A-45F7-9EE7-2CBAF9E6D164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED65E2-6019-48BF-A69A-D7F9A7B57DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="5" r:id="rId1"/>
     <sheet name="OpticalPower_vs_Current_20ºC" sheetId="6" r:id="rId2"/>
     <sheet name="OpticalPower_vs_Current_25º" sheetId="7" r:id="rId3"/>
-    <sheet name="OpticalPower_vs_Temp_15mA" sheetId="8" r:id="rId4"/>
+    <sheet name="OpticalPower_vs_Temp" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2529,7 +2529,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2565,7 +2565,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2620,7 +2620,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2656,7 +2656,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2706,7 +2706,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$N$11:$N$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$N$11:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2742,7 +2742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$T$11:$T$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$T$11:$T$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5320,7 +5320,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -8644,6 +8644,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -8653,13 +8660,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8673,8 +8673,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9648,6 +9648,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -9657,13 +9664,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
